--- a/TraceabilityLinkMatrix.xlsx
+++ b/TraceabilityLinkMatrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdeininger/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/workspace/projects/cs414-f18-801-singleton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D677D3C6-2A75-F445-8C73-9C20A43E8375}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F165F-0820-5F4A-8AD6-974BE6F9997F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15500" xr2:uid="{DED0C538-3A69-714E-9F63-D65627163E53}"/>
   </bookViews>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="42">
   <si>
     <t>UC1</t>
   </si>
@@ -155,6 +148,9 @@
   </si>
   <si>
     <t>UC24</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -524,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE88B17-7D47-554E-9883-34DDDD9C1293}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,43 +1034,107 @@
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">

--- a/TraceabilityLinkMatrix.xlsx
+++ b/TraceabilityLinkMatrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/workspace/projects/cs414-f18-801-singleton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/workspaces/projects/cs414-f18-801-singleton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F165F-0820-5F4A-8AD6-974BE6F9997F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7598AAB3-2ED7-5745-8ECE-2587D848A216}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15500" xr2:uid="{DED0C538-3A69-714E-9F63-D65627163E53}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
   <si>
     <t>UC1</t>
   </si>
@@ -148,26 +148,16 @@
   </si>
   <si>
     <t>UC24</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,11 +188,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE88B17-7D47-554E-9883-34DDDD9C1293}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,683 +591,647 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="3" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="3" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1285,28 +1239,28 @@
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q24" s="3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1314,28 +1268,28 @@
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="3" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
